--- a/mcmaster_excel/Metric_Brass_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Metric_Brass_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,136 +434,108 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M2 × 0.4 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Brass</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>96741A011</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>$11.17</t>
-        </is>
-      </c>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
@@ -574,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -614,12 +586,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96741A012</t>
+          <t>96741A011</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>$11.17</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -632,7 +604,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -672,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>96741A013</t>
+          <t>96741A012</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>10.08</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -690,7 +662,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -730,12 +702,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96741A015</t>
+          <t>96741A013</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -748,7 +720,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -788,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>96741A017</t>
+          <t>96741A015</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -806,18 +778,54 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>96741A017</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -828,54 +836,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>96741A113</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>12.62</t>
-        </is>
-      </c>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -886,7 +858,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -926,12 +898,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>96741A114</t>
+          <t>96741A113</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -944,7 +916,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -984,12 +956,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96741A116</t>
+          <t>96741A114</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1002,7 +974,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,12 +1014,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>96741A118</t>
+          <t>96741A116</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1060,7 +1032,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1095,17 +1067,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>96741A120</t>
+          <t>96741A118</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1118,7 +1090,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1158,12 +1130,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>96741A122</t>
+          <t>96741A120</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1176,18 +1148,54 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>96741A122</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1198,54 +1206,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>96741A216</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>11.33</t>
-        </is>
-      </c>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1256,7 +1228,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1296,12 +1268,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96741A218</t>
+          <t>96741A216</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1314,7 +1286,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1349,17 +1321,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>96741A220</t>
+          <t>96741A218</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1372,7 +1344,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1412,12 +1384,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>96741A222</t>
+          <t>96741A220</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1430,7 +1402,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1470,12 +1442,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>96741A226</t>
+          <t>96741A222</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1488,18 +1460,54 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>96741A226</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1510,54 +1518,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>96741A318</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1568,52 +1540,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>96741A320</t>
+          <t>96741A318</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1626,7 +1598,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1666,12 +1638,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>96741A322</t>
+          <t>96741A320</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1684,7 +1656,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1724,12 +1696,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>96741A326</t>
+          <t>96741A322</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1742,18 +1714,54 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96741A326</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1764,54 +1772,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>96741A420</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1822,7 +1794,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1862,12 +1834,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96741A424</t>
+          <t>96741A420</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1880,7 +1852,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1915,17 +1887,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>96741A426</t>
+          <t>96741A424</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1938,7 +1910,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1978,16 +1950,74 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>96741A428</t>
+          <t>96741A426</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>96741A428</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Brass</t>
         </is>
